--- a/iran/data/iran_transformation_targets.xlsx
+++ b/iran/data/iran_transformation_targets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8223e8c81818e4a8/Edmundo-ITESM/3.Proyectos/51. WB Decarbonization Project/Iran_CaseStudy/simulations raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C948BAF-FA5E-2C48-930D-FCEBF085FF6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="50" documentId="8_{8C948BAF-FA5E-2C48-930D-FCEBF085FF6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F69D8971-23FA-E440-83CD-BF9109C32227}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3740" yWindow="1840" windowWidth="34660" windowHeight="16600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -546,9 +546,6 @@
     <t>Fractional change in heat demand in buildings.</t>
   </si>
   <si>
-    <t>adjust 50% down</t>
-  </si>
-  <si>
     <t>TX:SCOE:INC_EFFICIENCY_APPLIANCE</t>
   </si>
   <si>
@@ -792,9 +789,6 @@
     <t>Target minimal fractional mix of wastewater treatment pathways (total shown in summary field)</t>
   </si>
   <si>
-    <t>FIX levels for 5001 and 5006</t>
-  </si>
-  <si>
     <t>TX:WALI:INC_TREATMENT_RURAL</t>
   </si>
   <si>
@@ -895,12 +889,21 @@
   </si>
   <si>
     <t>Target fraction of waste that is recylced.</t>
+  </si>
+  <si>
+    <t>reduced 50% to 30%</t>
+  </si>
+  <si>
+    <t>reduced 5001 to 80%</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -952,7 +955,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -988,12 +991,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1032,8 +1045,19 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -1337,13 +1361,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M62"/>
+  <dimension ref="A1:N62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K55" sqref="K55"/>
+      <selection pane="bottomRight" activeCell="N66" sqref="N66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1358,9 +1382,10 @@
     <col min="8" max="8" width="13.33203125" style="10" customWidth="1"/>
     <col min="9" max="9" width="13.6640625" style="10" customWidth="1"/>
     <col min="10" max="12" width="27.1640625" style="10" customWidth="1"/>
+    <col min="14" max="14" width="8.6640625" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="8" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" s="8" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1397,8 +1422,9 @@
       <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" s="6" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N1" s="14"/>
+    </row>
+    <row r="2" spans="1:14" s="6" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>12</v>
       </c>
@@ -1438,8 +1464,9 @@
       <c r="M2" s="13" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N2" s="15"/>
+    </row>
+    <row r="3" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>12</v>
       </c>
@@ -1473,7 +1500,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>12</v>
       </c>
@@ -1514,7 +1541,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>12</v>
       </c>
@@ -1553,7 +1580,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>12</v>
       </c>
@@ -1594,7 +1621,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>38</v>
       </c>
@@ -1630,7 +1657,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>38</v>
       </c>
@@ -1666,7 +1693,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>38</v>
       </c>
@@ -1702,7 +1729,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>38</v>
       </c>
@@ -1738,7 +1765,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>38</v>
       </c>
@@ -1774,7 +1801,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>38</v>
       </c>
@@ -1810,7 +1837,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>38</v>
       </c>
@@ -1846,7 +1873,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>38</v>
       </c>
@@ -1882,7 +1909,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>38</v>
       </c>
@@ -1918,7 +1945,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>79</v>
       </c>
@@ -2531,7 +2558,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>150</v>
       </c>
@@ -2563,7 +2590,7 @@
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
     </row>
-    <row r="34" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>150</v>
       </c>
@@ -2599,7 +2626,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>38</v>
       </c>
@@ -2631,16 +2658,19 @@
         <v>0.2</v>
       </c>
       <c r="K35" s="1">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="L35" s="1">
         <v>0.5</v>
       </c>
       <c r="M35" s="12" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+        <v>280</v>
+      </c>
+      <c r="N35" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>38</v>
       </c>
@@ -2648,16 +2678,16 @@
         <v>160</v>
       </c>
       <c r="C36" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D36" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="E36" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="E36" s="4" t="s">
+      <c r="F36" s="4" t="s">
         <v>168</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>169</v>
       </c>
       <c r="G36" s="9" t="s">
         <v>18</v>
@@ -2678,7 +2708,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>38</v>
       </c>
@@ -2686,16 +2716,16 @@
         <v>160</v>
       </c>
       <c r="C37" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="D37" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="E37" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="E37" s="4" t="s">
+      <c r="F37" s="4" t="s">
         <v>172</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>173</v>
       </c>
       <c r="G37" s="9" t="s">
         <v>18</v>
@@ -2714,24 +2744,24 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B38" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C38" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="D38" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="E38" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="E38" s="4" t="s">
+      <c r="F38" s="4" t="s">
         <v>177</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>178</v>
       </c>
       <c r="G38" s="9" t="s">
         <v>18</v>
@@ -2752,27 +2782,27 @@
         <v>0.2</v>
       </c>
       <c r="M38" s="12" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C39" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="D39" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="E39" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="E39" s="4" t="s">
+      <c r="F39" s="4" t="s">
         <v>182</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>183</v>
       </c>
       <c r="G39" s="9" t="s">
         <v>18</v>
@@ -2793,27 +2823,27 @@
         <v>0.2</v>
       </c>
       <c r="M39" s="12" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
         <v>38</v>
       </c>
       <c r="B40" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C40" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="D40" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="D40" s="4" t="s">
+      <c r="E40" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="E40" s="4" t="s">
+      <c r="F40" s="4" t="s">
         <v>187</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>188</v>
       </c>
       <c r="G40" s="9" t="s">
         <v>18</v>
@@ -2834,27 +2864,27 @@
         <v>0.25</v>
       </c>
       <c r="M40" s="12" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
         <v>38</v>
       </c>
       <c r="B41" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C41" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="D41" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="D41" s="4" t="s">
+      <c r="E41" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="E41" s="4" t="s">
+      <c r="F41" s="4" t="s">
         <v>193</v>
-      </c>
-      <c r="F41" s="4" t="s">
-        <v>194</v>
       </c>
       <c r="G41" s="9" t="s">
         <v>18</v>
@@ -2873,24 +2903,24 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
         <v>38</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C42" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="D42" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="D42" s="4" t="s">
+      <c r="E42" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="E42" s="4" t="s">
+      <c r="F42" s="4" t="s">
         <v>197</v>
-      </c>
-      <c r="F42" s="4" t="s">
-        <v>198</v>
       </c>
       <c r="G42" s="9" t="s">
         <v>18</v>
@@ -2909,24 +2939,24 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
         <v>38</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C43" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="D43" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="D43" s="4" t="s">
+      <c r="E43" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="E43" s="4" t="s">
+      <c r="F43" s="4" t="s">
         <v>201</v>
-      </c>
-      <c r="F43" s="4" t="s">
-        <v>202</v>
       </c>
       <c r="G43" s="9" t="s">
         <v>18</v>
@@ -2945,24 +2975,24 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
         <v>38</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C44" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D44" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="D44" s="4" t="s">
+      <c r="E44" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="E44" s="4" t="s">
+      <c r="F44" s="4" t="s">
         <v>205</v>
-      </c>
-      <c r="F44" s="4" t="s">
-        <v>206</v>
       </c>
       <c r="G44" s="9" t="s">
         <v>18</v>
@@ -2981,24 +3011,24 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
         <v>38</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C45" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="D45" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="D45" s="4" t="s">
+      <c r="E45" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="E45" s="4" t="s">
+      <c r="F45" s="4" t="s">
         <v>209</v>
-      </c>
-      <c r="F45" s="4" t="s">
-        <v>210</v>
       </c>
       <c r="G45" s="9" t="s">
         <v>18</v>
@@ -3017,24 +3047,24 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="46" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
         <v>38</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C46" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="D46" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="D46" s="4" t="s">
+      <c r="E46" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="E46" s="4" t="s">
+      <c r="F46" s="4" t="s">
         <v>213</v>
-      </c>
-      <c r="F46" s="4" t="s">
-        <v>214</v>
       </c>
       <c r="G46" s="9" t="s">
         <v>18</v>
@@ -3053,24 +3083,24 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
         <v>38</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C47" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="D47" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="D47" s="4" t="s">
+      <c r="E47" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="E47" s="4" t="s">
+      <c r="F47" s="4" t="s">
         <v>217</v>
-      </c>
-      <c r="F47" s="4" t="s">
-        <v>218</v>
       </c>
       <c r="G47" s="9" t="s">
         <v>18</v>
@@ -3089,24 +3119,24 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="48" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
         <v>38</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C48" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="D48" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="D48" s="4" t="s">
+      <c r="E48" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="E48" s="4" t="s">
+      <c r="F48" s="4" t="s">
         <v>221</v>
-      </c>
-      <c r="F48" s="4" t="s">
-        <v>222</v>
       </c>
       <c r="G48" s="9" t="s">
         <v>18</v>
@@ -3125,27 +3155,27 @@
         <v>0.2</v>
       </c>
       <c r="M48" s="12" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
         <v>38</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C49" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="D49" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="D49" s="4" t="s">
+      <c r="E49" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="E49" s="4" t="s">
+      <c r="F49" s="4" t="s">
         <v>226</v>
-      </c>
-      <c r="F49" s="4" t="s">
-        <v>227</v>
       </c>
       <c r="G49" s="9" t="s">
         <v>18</v>
@@ -3164,27 +3194,27 @@
         <v>0.3</v>
       </c>
       <c r="M49" s="12" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
         <v>38</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C50" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="D50" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="D50" s="4" t="s">
+      <c r="E50" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="E50" s="4" t="s">
+      <c r="F50" s="4" t="s">
         <v>230</v>
-      </c>
-      <c r="F50" s="4" t="s">
-        <v>231</v>
       </c>
       <c r="G50" s="9" t="s">
         <v>18</v>
@@ -3203,27 +3233,27 @@
         <v>0.3</v>
       </c>
       <c r="M50" s="12" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
         <v>79</v>
       </c>
       <c r="B51" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="C51" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="C51" s="4" t="s">
+      <c r="D51" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="D51" s="4" t="s">
+      <c r="E51" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="E51" s="4" t="s">
+      <c r="F51" s="4" t="s">
         <v>235</v>
-      </c>
-      <c r="F51" s="4" t="s">
-        <v>236</v>
       </c>
       <c r="G51" s="9" t="s">
         <v>18</v>
@@ -3242,24 +3272,24 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
         <v>79</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C52" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="D52" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="D52" s="4" t="s">
+      <c r="E52" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="E52" s="4" t="s">
+      <c r="F52" s="4" t="s">
         <v>239</v>
-      </c>
-      <c r="F52" s="4" t="s">
-        <v>240</v>
       </c>
       <c r="G52" s="9" t="s">
         <v>18</v>
@@ -3278,24 +3308,24 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="B53" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="B53" s="4" t="s">
+      <c r="C53" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="C53" s="4" t="s">
+      <c r="D53" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="D53" s="4" t="s">
+      <c r="E53" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="E53" s="4" t="s">
+      <c r="F53" s="4" t="s">
         <v>245</v>
-      </c>
-      <c r="F53" s="4" t="s">
-        <v>246</v>
       </c>
       <c r="G53" s="9" t="s">
         <v>18</v>
@@ -3307,36 +3337,39 @@
         <v>1</v>
       </c>
       <c r="J53" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="K53" s="1">
         <v>0.9</v>
       </c>
-      <c r="K53" s="1">
-        <v>1</v>
-      </c>
       <c r="L53" s="1">
         <v>1</v>
       </c>
       <c r="M53" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="N53" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="D54" s="4" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="54" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="C54" s="4" t="s">
+      <c r="E54" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="D54" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="E54" s="4" t="s">
-        <v>250</v>
-      </c>
       <c r="F54" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G54" s="9" t="s">
         <v>18</v>
@@ -3348,36 +3381,39 @@
         <v>1</v>
       </c>
       <c r="J54" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="K54" s="1">
         <v>0.9</v>
       </c>
-      <c r="K54" s="1">
-        <v>1</v>
-      </c>
       <c r="L54" s="1">
         <v>1</v>
       </c>
       <c r="M54" s="12" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+        <v>281</v>
+      </c>
+      <c r="N54" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="B55" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="B55" s="4" t="s">
-        <v>242</v>
-      </c>
       <c r="C55" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="E55" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="D55" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="E55" s="4" t="s">
-        <v>253</v>
-      </c>
       <c r="F55" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G55" s="9" t="s">
         <v>18</v>
@@ -3389,36 +3425,39 @@
         <v>1</v>
       </c>
       <c r="J55" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="K55" s="1">
         <v>0.9</v>
       </c>
-      <c r="K55" s="1">
-        <v>1</v>
-      </c>
       <c r="L55" s="1">
         <v>1</v>
       </c>
       <c r="M55" s="12" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+        <v>281</v>
+      </c>
+      <c r="N55" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B56" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="D56" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="C56" s="4" t="s">
+      <c r="E56" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="D56" s="4" t="s">
+      <c r="F56" s="4" t="s">
         <v>256</v>
-      </c>
-      <c r="E56" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="F56" s="4" t="s">
-        <v>258</v>
       </c>
       <c r="G56" s="9" t="s">
         <v>18</v>
@@ -3437,24 +3476,24 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="57" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C57" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="E57" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="D57" s="4" t="s">
+      <c r="F57" s="4" t="s">
         <v>260</v>
-      </c>
-      <c r="E57" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="F57" s="4" t="s">
-        <v>262</v>
       </c>
       <c r="G57" s="9" t="s">
         <v>18</v>
@@ -3473,24 +3512,24 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="58" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C58" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="F58" s="4" t="s">
         <v>263</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="E58" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="F58" s="4" t="s">
-        <v>265</v>
       </c>
       <c r="G58" s="9" t="s">
         <v>18</v>
@@ -3509,24 +3548,24 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="59" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C59" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="E59" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="D59" s="4" t="s">
+      <c r="F59" s="4" t="s">
         <v>267</v>
-      </c>
-      <c r="E59" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="F59" s="4" t="s">
-        <v>269</v>
       </c>
       <c r="G59" s="9" t="s">
         <v>18</v>
@@ -3545,24 +3584,24 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="60" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C60" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="E60" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="D60" s="4" t="s">
+      <c r="F60" s="4" t="s">
         <v>271</v>
-      </c>
-      <c r="E60" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="F60" s="4" t="s">
-        <v>273</v>
       </c>
       <c r="G60" s="9" t="s">
         <v>18</v>
@@ -3581,24 +3620,24 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="61" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C61" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="E61" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="D61" s="4" t="s">
+      <c r="F61" s="4" t="s">
         <v>275</v>
-      </c>
-      <c r="E61" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="F61" s="4" t="s">
-        <v>277</v>
       </c>
       <c r="G61" s="9" t="s">
         <v>18</v>
@@ -3617,24 +3656,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C62" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="E62" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="D62" s="4" t="s">
+      <c r="F62" s="4" t="s">
         <v>279</v>
-      </c>
-      <c r="E62" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="F62" s="4" t="s">
-        <v>281</v>
       </c>
       <c r="G62" s="9" t="s">
         <v>18</v>
@@ -3654,13 +3693,12 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M62" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M62">
     <sortCondition ref="B2:B62"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2:I2">
-    <cfRule type="colorScale" priority="251">
+    <cfRule type="colorScale" priority="259">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3672,1926 +3710,1954 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:I3">
+    <cfRule type="colorScale" priority="194">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4:I4">
+    <cfRule type="colorScale" priority="191">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5:I5">
+    <cfRule type="colorScale" priority="188">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H6:I6">
+    <cfRule type="colorScale" priority="185">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7:I7">
+    <cfRule type="colorScale" priority="182">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H8:I8">
+    <cfRule type="colorScale" priority="179">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H9:I9">
+    <cfRule type="colorScale" priority="176">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H10:I10">
+    <cfRule type="colorScale" priority="173">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H11:I11">
+    <cfRule type="colorScale" priority="170">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H12:I12">
+    <cfRule type="colorScale" priority="167">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H13:I13">
+    <cfRule type="colorScale" priority="164">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H14:I14">
+    <cfRule type="colorScale" priority="161">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H15:I15">
+    <cfRule type="colorScale" priority="158">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H16:I16">
+    <cfRule type="colorScale" priority="155">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H17:I17">
+    <cfRule type="colorScale" priority="152">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H18:I18">
+    <cfRule type="colorScale" priority="149">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H19:I19">
+    <cfRule type="colorScale" priority="146">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H20:I20">
+    <cfRule type="colorScale" priority="143">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H21:I21">
+    <cfRule type="colorScale" priority="140">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H22:I22">
+    <cfRule type="colorScale" priority="137">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H23:I23">
+    <cfRule type="colorScale" priority="134">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H24:I24">
+    <cfRule type="colorScale" priority="131">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H25:I25">
+    <cfRule type="colorScale" priority="128">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H26:I26">
+    <cfRule type="colorScale" priority="125">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H27:I27">
+    <cfRule type="colorScale" priority="122">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H28:I28">
+    <cfRule type="colorScale" priority="119">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H29:I29">
+    <cfRule type="colorScale" priority="116">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H30:I30">
+    <cfRule type="colorScale" priority="113">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H31:I31">
+    <cfRule type="colorScale" priority="110">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H32:I32">
+    <cfRule type="colorScale" priority="107">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H33:I33">
+    <cfRule type="colorScale" priority="104">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H34:I34">
+    <cfRule type="colorScale" priority="101">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H35:I35">
+    <cfRule type="colorScale" priority="98">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H36:I36">
+    <cfRule type="colorScale" priority="95">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H37:I37">
+    <cfRule type="colorScale" priority="92">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H38:I38">
+    <cfRule type="colorScale" priority="89">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H39:I39">
+    <cfRule type="colorScale" priority="86">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H40:I40">
+    <cfRule type="colorScale" priority="83">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H41:I41">
+    <cfRule type="colorScale" priority="80">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H42:I42">
+    <cfRule type="colorScale" priority="77">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H43:I43">
+    <cfRule type="colorScale" priority="74">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H44:I44">
+    <cfRule type="colorScale" priority="71">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H45:I45">
+    <cfRule type="colorScale" priority="68">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H46:I46">
+    <cfRule type="colorScale" priority="65">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H47:I47">
+    <cfRule type="colorScale" priority="62">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H48:I48">
+    <cfRule type="colorScale" priority="59">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H49:I49">
+    <cfRule type="colorScale" priority="56">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H50:I50">
+    <cfRule type="colorScale" priority="53">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H51:I51">
+    <cfRule type="colorScale" priority="50">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H52:I52">
+    <cfRule type="colorScale" priority="47">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H53:I53">
+    <cfRule type="colorScale" priority="44">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H54:I54">
+    <cfRule type="colorScale" priority="41">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H55:I55">
+    <cfRule type="colorScale" priority="38">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H56:I56">
+    <cfRule type="colorScale" priority="35">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H57:I57">
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H58:I58">
+    <cfRule type="colorScale" priority="29">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H59:I59">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H60:I60">
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H61:I61">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H62:I62">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:L2">
+    <cfRule type="colorScale" priority="195">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="255">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3:L3">
+    <cfRule type="colorScale" priority="192">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="193">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4:L4">
+    <cfRule type="colorScale" priority="190">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="189">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5:L5">
     <cfRule type="colorScale" priority="186">
       <colorScale>
         <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H4:I4">
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="187">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H6:L6">
+    <cfRule type="colorScale" priority="184">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="183">
       <colorScale>
         <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H5:I5">
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7:L7">
+    <cfRule type="colorScale" priority="181">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="180">
       <colorScale>
         <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H6:I6">
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H8:L8">
+    <cfRule type="colorScale" priority="178">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="177">
       <colorScale>
         <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H7:I7">
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H9:L9">
+    <cfRule type="colorScale" priority="175">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="174">
       <colorScale>
         <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H8:I8">
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H10:L10">
+    <cfRule type="colorScale" priority="172">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="171">
       <colorScale>
         <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H9:I9">
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H11:L11">
     <cfRule type="colorScale" priority="168">
       <colorScale>
         <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H10:I10">
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="169">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H12:L12">
     <cfRule type="colorScale" priority="165">
       <colorScale>
         <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H11:I11">
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="166">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H13:L13">
     <cfRule type="colorScale" priority="162">
       <colorScale>
         <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H12:I12">
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="163">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H14:L14">
     <cfRule type="colorScale" priority="159">
       <colorScale>
         <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H13:I13">
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="160">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H15:L15">
     <cfRule type="colorScale" priority="156">
       <colorScale>
         <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H14:I14">
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="157">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H16:L16">
     <cfRule type="colorScale" priority="153">
       <colorScale>
         <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H15:I15">
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="154">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H17:L17">
     <cfRule type="colorScale" priority="150">
       <colorScale>
         <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H16:I16">
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="151">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H18:L18">
+    <cfRule type="colorScale" priority="148">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="147">
       <colorScale>
         <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H17:I17">
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H19:L19">
     <cfRule type="colorScale" priority="144">
       <colorScale>
         <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H18:I18">
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="145">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H20:L20">
     <cfRule type="colorScale" priority="141">
       <colorScale>
         <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H19:I19">
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="142">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H21:L21">
     <cfRule type="colorScale" priority="138">
       <colorScale>
         <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H20:I20">
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="139">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H22:L22">
+    <cfRule type="colorScale" priority="136">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="135">
       <colorScale>
         <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H21:I21">
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H23:L23">
     <cfRule type="colorScale" priority="132">
       <colorScale>
         <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H22:I22">
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="133">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H24:L24">
     <cfRule type="colorScale" priority="129">
       <colorScale>
         <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H23:I23">
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="130">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H25:L25">
     <cfRule type="colorScale" priority="126">
       <colorScale>
         <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H24:I24">
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="127">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H26:L26">
     <cfRule type="colorScale" priority="123">
       <colorScale>
         <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H25:I25">
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="124">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H27:L27">
     <cfRule type="colorScale" priority="120">
       <colorScale>
         <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H26:I26">
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="121">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H28:L28">
     <cfRule type="colorScale" priority="117">
       <colorScale>
         <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H27:I27">
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="118">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H29:L29">
+    <cfRule type="colorScale" priority="115">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="114">
       <colorScale>
         <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H28:I28">
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H30:L30">
+    <cfRule type="colorScale" priority="112">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="111">
       <colorScale>
         <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H29:I29">
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H31:L31">
+    <cfRule type="colorScale" priority="109">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="108">
       <colorScale>
         <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H30:I30">
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H32:L32">
     <cfRule type="colorScale" priority="105">
       <colorScale>
         <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H31:I31">
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="106">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H33:L33">
+    <cfRule type="colorScale" priority="103">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="102">
       <colorScale>
         <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H32:I32">
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H34:L34">
+    <cfRule type="colorScale" priority="100">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="99">
       <colorScale>
         <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H33:I33">
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H35:L35 N35">
+    <cfRule type="colorScale" priority="97">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="96">
       <colorScale>
         <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H34:I34">
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H36:L36">
+    <cfRule type="colorScale" priority="94">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="93">
       <colorScale>
         <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H35:I35">
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H37:L37">
+    <cfRule type="colorScale" priority="91">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="90">
       <colorScale>
         <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H36:I36">
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H38:L38">
+    <cfRule type="colorScale" priority="88">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="87">
       <colorScale>
         <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H37:I37">
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H39:L39">
     <cfRule type="colorScale" priority="84">
       <colorScale>
         <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H38:I38">
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="85">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H40:L40">
+    <cfRule type="colorScale" priority="82">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="81">
       <colorScale>
         <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H39:I39">
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H41:L41">
+    <cfRule type="colorScale" priority="79">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="78">
       <colorScale>
         <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H40:I40">
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H42:L42">
+    <cfRule type="colorScale" priority="76">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="75">
       <colorScale>
         <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H41:I41">
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H43:L43">
+    <cfRule type="colorScale" priority="73">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="72">
       <colorScale>
         <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H42:I42">
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H44:L44">
+    <cfRule type="colorScale" priority="70">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="69">
       <colorScale>
         <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H43:I43">
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H45:L45">
+    <cfRule type="colorScale" priority="67">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="66">
       <colorScale>
         <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H44:I44">
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H46:L46">
+    <cfRule type="colorScale" priority="64">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="63">
       <colorScale>
         <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H45:I45">
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H47:L47">
     <cfRule type="colorScale" priority="60">
       <colorScale>
         <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H46:I46">
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="61">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H48:L48">
+    <cfRule type="colorScale" priority="58">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="57">
       <colorScale>
         <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H47:I47">
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H49:L49">
+    <cfRule type="colorScale" priority="55">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="54">
       <colorScale>
         <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H48:I48">
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H50:L50">
+    <cfRule type="colorScale" priority="52">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="51">
       <colorScale>
         <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H49:I49">
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H51:L51">
+    <cfRule type="colorScale" priority="49">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="48">
       <colorScale>
         <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H50:I50">
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H52:L52">
+    <cfRule type="colorScale" priority="46">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="45">
       <colorScale>
         <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H51:I51">
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H53:L53 N53">
+    <cfRule type="colorScale" priority="43">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="42">
       <colorScale>
         <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H52:I52">
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H54:I54 L54">
+    <cfRule type="colorScale" priority="40">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="39">
       <colorScale>
         <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H53:I53">
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H55:I55 L55">
+    <cfRule type="colorScale" priority="37">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H54:I54">
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H56:L56">
+    <cfRule type="colorScale" priority="34">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="33">
       <colorScale>
         <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H55:I55">
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H57:L57">
+    <cfRule type="colorScale" priority="31">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H56:I56">
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H58:L58">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="27">
       <colorScale>
         <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H57:I57">
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H59:L59">
+    <cfRule type="colorScale" priority="25">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H58:I58">
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H60:L60">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H59:I59">
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H61:L61">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H60:I60">
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H62:L62">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H61:I61">
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H62:I62">
-    <cfRule type="colorScale" priority="9">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H2:L2">
-    <cfRule type="colorScale" priority="187">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="247">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H3:L3">
-    <cfRule type="colorScale" priority="184">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="185">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H4:L4">
-    <cfRule type="colorScale" priority="182">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="181">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H5:L5">
-    <cfRule type="colorScale" priority="178">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="179">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H6:L6">
-    <cfRule type="colorScale" priority="176">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="175">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H7:L7">
-    <cfRule type="colorScale" priority="173">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="172">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H8:L8">
-    <cfRule type="colorScale" priority="170">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="169">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H9:L9">
-    <cfRule type="colorScale" priority="167">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="166">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H10:L10">
-    <cfRule type="colorScale" priority="164">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="163">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H11:L11">
-    <cfRule type="colorScale" priority="160">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="161">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H12:L12">
-    <cfRule type="colorScale" priority="157">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="158">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H13:L13">
-    <cfRule type="colorScale" priority="154">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="155">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H14:L14">
-    <cfRule type="colorScale" priority="151">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="152">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H15:L15">
-    <cfRule type="colorScale" priority="148">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="149">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H16:L16">
-    <cfRule type="colorScale" priority="145">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="146">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H17:L17">
-    <cfRule type="colorScale" priority="142">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="143">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H18:L18">
-    <cfRule type="colorScale" priority="140">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="139">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H19:L19">
-    <cfRule type="colorScale" priority="136">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="137">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H20:L20">
-    <cfRule type="colorScale" priority="133">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="134">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H21:L21">
-    <cfRule type="colorScale" priority="130">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="131">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H22:L22">
-    <cfRule type="colorScale" priority="128">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="127">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H23:L23">
-    <cfRule type="colorScale" priority="124">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="125">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H24:L24">
-    <cfRule type="colorScale" priority="121">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="122">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H25:L25">
-    <cfRule type="colorScale" priority="118">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="119">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H26:L26">
-    <cfRule type="colorScale" priority="115">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="116">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H27:L27">
-    <cfRule type="colorScale" priority="112">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="113">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H28:L28">
-    <cfRule type="colorScale" priority="109">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="110">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H29:L29">
-    <cfRule type="colorScale" priority="107">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="106">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H30:L30">
-    <cfRule type="colorScale" priority="104">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="103">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H31:L31">
-    <cfRule type="colorScale" priority="101">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="100">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H32:L32">
-    <cfRule type="colorScale" priority="97">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="98">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H33:L33">
-    <cfRule type="colorScale" priority="95">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="94">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H34:L34">
-    <cfRule type="colorScale" priority="92">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="91">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H35:L35">
-    <cfRule type="colorScale" priority="89">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="88">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H36:L36">
-    <cfRule type="colorScale" priority="86">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="85">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H37:L37">
-    <cfRule type="colorScale" priority="83">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="82">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H38:L38">
-    <cfRule type="colorScale" priority="80">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="79">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H39:L39">
-    <cfRule type="colorScale" priority="76">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="77">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H40:L40">
-    <cfRule type="colorScale" priority="74">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="73">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H41:L41">
-    <cfRule type="colorScale" priority="71">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="70">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H42:L42">
-    <cfRule type="colorScale" priority="68">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="67">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H43:L43">
-    <cfRule type="colorScale" priority="65">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="64">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H44:L44">
-    <cfRule type="colorScale" priority="62">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="61">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H45:L45">
-    <cfRule type="colorScale" priority="59">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="58">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H46:L46">
-    <cfRule type="colorScale" priority="56">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="55">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H47:L47">
-    <cfRule type="colorScale" priority="52">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="53">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H48:L48">
-    <cfRule type="colorScale" priority="50">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="49">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H49:L49">
-    <cfRule type="colorScale" priority="47">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="46">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H50:L50">
-    <cfRule type="colorScale" priority="44">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="43">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H51:L51">
-    <cfRule type="colorScale" priority="41">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="40">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H52:L52">
-    <cfRule type="colorScale" priority="38">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="37">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H53:L53">
-    <cfRule type="colorScale" priority="35">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="34">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H54:L54">
-    <cfRule type="colorScale" priority="32">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="31">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H55:L55">
-    <cfRule type="colorScale" priority="29">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="28">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H56:L56">
-    <cfRule type="colorScale" priority="26">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="25">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H57:L57">
-    <cfRule type="colorScale" priority="23">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="22">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H58:L58">
-    <cfRule type="colorScale" priority="20">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="19">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H59:L59">
-    <cfRule type="colorScale" priority="17">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="16">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H60:L60">
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="13">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H61:L61">
-    <cfRule type="colorScale" priority="11">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H62:L62">
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J54">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -5602,11 +5668,63 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J55">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K54">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K55">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
@@ -5617,15 +5735,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="1749d088-eb8c-44ef-8763-aa7a721fda93">
@@ -5633,6 +5742,15 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5847,19 +5965,19 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{92D72F3B-F2C4-4BED-8D93-4B2D5593DC94}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2A7E4197-29DD-4E6F-A0C8-73212426111C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="1749d088-eb8c-44ef-8763-aa7a721fda93"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2A7E4197-29DD-4E6F-A0C8-73212426111C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{92D72F3B-F2C4-4BED-8D93-4B2D5593DC94}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="1749d088-eb8c-44ef-8763-aa7a721fda93"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
